--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>左右对称交换：(wh//9+1)*9-wh%9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,12 +90,32 @@
     <t>top: abs(row - col) in (1, 3, 7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>象棋演播室的棋子位置模型：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>◤◢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>╠╣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤≥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +191,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -225,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +333,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BX30"/>
+  <dimension ref="B1:BX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU13" sqref="AU13"/>
+    <sheetView tabSelected="1" topLeftCell="AH19" workbookViewId="0">
+      <selection activeCell="BE30" sqref="BE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -3374,31 +3412,31 @@
       <c r="AT12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AU12" s="18" t="s">
+      <c r="AU12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AV12" s="18" t="s">
+      <c r="AV12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AW12" s="18" t="s">
+      <c r="AW12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AX12" s="18" t="s">
+      <c r="AX12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AY12" s="18" t="s">
+      <c r="AY12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AZ12" s="18" t="s">
+      <c r="AZ12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="BA12" s="18" t="s">
+      <c r="BA12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="BB12" s="18" t="s">
+      <c r="BB12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="BC12" s="18" t="s">
+      <c r="BC12" s="24" t="s">
         <v>11</v>
       </c>
       <c r="BE12" s="23" t="s">
@@ -3687,13 +3725,11 @@
       <c r="BA16"/>
       <c r="BB16"/>
       <c r="BC16"/>
-      <c r="BE16"/>
       <c r="BF16"/>
       <c r="BG16"/>
       <c r="BH16"/>
       <c r="BI16"/>
       <c r="BJ16"/>
-      <c r="BK16"/>
       <c r="BL16"/>
       <c r="BM16"/>
       <c r="BN16"/>
@@ -4238,16 +4274,19 @@
       <c r="AO21"/>
       <c r="AP21"/>
       <c r="AQ21"/>
+      <c r="AS21" s="25" t="s">
+        <v>17</v>
+      </c>
       <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21"/>
-      <c r="AX21"/>
-      <c r="AY21"/>
-      <c r="AZ21"/>
-      <c r="BA21"/>
-      <c r="BB21"/>
-      <c r="BC21"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
       <c r="BE21"/>
       <c r="BF21"/>
       <c r="BG21"/>
@@ -4349,17 +4388,48 @@
       <c r="AO22"/>
       <c r="AP22"/>
       <c r="AQ22"/>
-      <c r="AT22"/>
-      <c r="AU22"/>
-      <c r="AV22"/>
-      <c r="AW22"/>
-      <c r="AX22"/>
-      <c r="AY22"/>
-      <c r="AZ22"/>
-      <c r="BA22"/>
-      <c r="BB22"/>
-      <c r="BC22"/>
-      <c r="BE22"/>
+      <c r="AT22" s="24">
+        <v>9</v>
+      </c>
+      <c r="AU22" s="4" t="str">
+        <f t="shared" ref="AU22:BC31" si="73">(AU$33&amp;$AT22)</f>
+        <v>89</v>
+      </c>
+      <c r="AV22" s="5" t="str">
+        <f t="shared" si="73"/>
+        <v>79</v>
+      </c>
+      <c r="AW22" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>69</v>
+      </c>
+      <c r="AX22" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>59</v>
+      </c>
+      <c r="AY22" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>49</v>
+      </c>
+      <c r="AZ22" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>39</v>
+      </c>
+      <c r="BA22" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>29</v>
+      </c>
+      <c r="BB22" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>19</v>
+      </c>
+      <c r="BC22" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>09</v>
+      </c>
+      <c r="BE22" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="BF22"/>
       <c r="BG22"/>
       <c r="BH22"/>
@@ -4460,17 +4530,48 @@
       <c r="AO23"/>
       <c r="AP23"/>
       <c r="AQ23"/>
-      <c r="AT23"/>
-      <c r="AU23"/>
-      <c r="AV23"/>
-      <c r="AW23"/>
-      <c r="AX23"/>
-      <c r="AY23"/>
-      <c r="AZ23"/>
-      <c r="BA23"/>
-      <c r="BB23"/>
-      <c r="BC23"/>
-      <c r="BE23"/>
+      <c r="AT23" s="24">
+        <v>8</v>
+      </c>
+      <c r="AU23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>88</v>
+      </c>
+      <c r="AV23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>78</v>
+      </c>
+      <c r="AW23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>68</v>
+      </c>
+      <c r="AX23" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>58</v>
+      </c>
+      <c r="AY23" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>48</v>
+      </c>
+      <c r="AZ23" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>38</v>
+      </c>
+      <c r="BA23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>28</v>
+      </c>
+      <c r="BB23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>18</v>
+      </c>
+      <c r="BC23" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>08</v>
+      </c>
+      <c r="BE23" s="26" t="s">
+        <v>19</v>
+      </c>
       <c r="BF23"/>
       <c r="BG23"/>
       <c r="BH23"/>
@@ -4571,17 +4672,48 @@
       <c r="AO24"/>
       <c r="AP24"/>
       <c r="AQ24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
-      <c r="AW24"/>
-      <c r="AX24"/>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="BA24"/>
-      <c r="BB24"/>
-      <c r="BC24"/>
-      <c r="BE24"/>
+      <c r="AT24" s="24">
+        <v>7</v>
+      </c>
+      <c r="AU24" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>87</v>
+      </c>
+      <c r="AV24" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>77</v>
+      </c>
+      <c r="AW24" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>67</v>
+      </c>
+      <c r="AX24" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>57</v>
+      </c>
+      <c r="AY24" s="8" t="str">
+        <f t="shared" si="73"/>
+        <v>47</v>
+      </c>
+      <c r="AZ24" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>37</v>
+      </c>
+      <c r="BA24" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>27</v>
+      </c>
+      <c r="BB24" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>17</v>
+      </c>
+      <c r="BC24" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>07</v>
+      </c>
+      <c r="BE24" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="BF24"/>
       <c r="BG24"/>
       <c r="BH24"/>
@@ -4691,17 +4823,48 @@
       <c r="AO25"/>
       <c r="AP25"/>
       <c r="AQ25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BE25"/>
+      <c r="AT25" s="24">
+        <v>6</v>
+      </c>
+      <c r="AU25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>86</v>
+      </c>
+      <c r="AV25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>76</v>
+      </c>
+      <c r="AW25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>66</v>
+      </c>
+      <c r="AX25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>56</v>
+      </c>
+      <c r="AY25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>46</v>
+      </c>
+      <c r="AZ25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>36</v>
+      </c>
+      <c r="BA25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>26</v>
+      </c>
+      <c r="BB25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>16</v>
+      </c>
+      <c r="BC25" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>06</v>
+      </c>
+      <c r="BE25" s="26" t="s">
+        <v>21</v>
+      </c>
       <c r="BF25"/>
       <c r="BG25"/>
       <c r="BH25"/>
@@ -4811,16 +4974,45 @@
       <c r="AO26"/>
       <c r="AP26"/>
       <c r="AQ26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
+      <c r="AT26" s="24">
+        <v>5</v>
+      </c>
+      <c r="AU26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>85</v>
+      </c>
+      <c r="AV26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>75</v>
+      </c>
+      <c r="AW26" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>65</v>
+      </c>
+      <c r="AX26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>55</v>
+      </c>
+      <c r="AY26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>45</v>
+      </c>
+      <c r="AZ26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>35</v>
+      </c>
+      <c r="BA26" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>25</v>
+      </c>
+      <c r="BB26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>15</v>
+      </c>
+      <c r="BC26" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>05</v>
+      </c>
       <c r="BE26"/>
       <c r="BF26"/>
       <c r="BG26"/>
@@ -4931,16 +5123,45 @@
       <c r="AO27"/>
       <c r="AP27"/>
       <c r="AQ27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
-      <c r="AW27"/>
-      <c r="AX27"/>
-      <c r="AY27"/>
-      <c r="AZ27"/>
-      <c r="BA27"/>
-      <c r="BB27"/>
-      <c r="BC27"/>
+      <c r="AT27" s="24">
+        <v>4</v>
+      </c>
+      <c r="AU27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>84</v>
+      </c>
+      <c r="AV27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>74</v>
+      </c>
+      <c r="AW27" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>64</v>
+      </c>
+      <c r="AX27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>54</v>
+      </c>
+      <c r="AY27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>44</v>
+      </c>
+      <c r="AZ27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>34</v>
+      </c>
+      <c r="BA27" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>24</v>
+      </c>
+      <c r="BB27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>14</v>
+      </c>
+      <c r="BC27" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>04</v>
+      </c>
       <c r="BE27"/>
       <c r="BF27"/>
       <c r="BG27"/>
@@ -5051,16 +5272,45 @@
       <c r="AO28"/>
       <c r="AP28"/>
       <c r="AQ28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
-      <c r="AW28"/>
-      <c r="AX28"/>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="BA28"/>
-      <c r="BB28"/>
-      <c r="BC28"/>
+      <c r="AT28" s="24">
+        <v>3</v>
+      </c>
+      <c r="AU28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>83</v>
+      </c>
+      <c r="AV28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>73</v>
+      </c>
+      <c r="AW28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>63</v>
+      </c>
+      <c r="AX28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>53</v>
+      </c>
+      <c r="AY28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>43</v>
+      </c>
+      <c r="AZ28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>33</v>
+      </c>
+      <c r="BA28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>23</v>
+      </c>
+      <c r="BB28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>13</v>
+      </c>
+      <c r="BC28" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>03</v>
+      </c>
       <c r="BE28"/>
       <c r="BF28"/>
       <c r="BG28"/>
@@ -5171,16 +5421,45 @@
       <c r="AO29"/>
       <c r="AP29"/>
       <c r="AQ29"/>
-      <c r="AT29"/>
-      <c r="AU29"/>
-      <c r="AV29"/>
-      <c r="AW29"/>
-      <c r="AX29"/>
-      <c r="AY29"/>
-      <c r="AZ29"/>
-      <c r="BA29"/>
-      <c r="BB29"/>
-      <c r="BC29"/>
+      <c r="AT29" s="24">
+        <v>2</v>
+      </c>
+      <c r="AU29" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>82</v>
+      </c>
+      <c r="AV29" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>72</v>
+      </c>
+      <c r="AW29" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>62</v>
+      </c>
+      <c r="AX29" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>52</v>
+      </c>
+      <c r="AY29" s="8" t="str">
+        <f t="shared" si="73"/>
+        <v>42</v>
+      </c>
+      <c r="AZ29" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>32</v>
+      </c>
+      <c r="BA29" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>22</v>
+      </c>
+      <c r="BB29" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>12</v>
+      </c>
+      <c r="BC29" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>02</v>
+      </c>
       <c r="BE29"/>
       <c r="BF29"/>
       <c r="BG29"/>
@@ -5291,16 +5570,45 @@
       <c r="AO30"/>
       <c r="AP30"/>
       <c r="AQ30"/>
-      <c r="AT30"/>
-      <c r="AU30"/>
-      <c r="AV30"/>
-      <c r="AW30"/>
-      <c r="AX30"/>
-      <c r="AY30"/>
-      <c r="AZ30"/>
-      <c r="BA30"/>
-      <c r="BB30"/>
-      <c r="BC30"/>
+      <c r="AT30" s="24">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>81</v>
+      </c>
+      <c r="AV30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>71</v>
+      </c>
+      <c r="AW30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>61</v>
+      </c>
+      <c r="AX30" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>51</v>
+      </c>
+      <c r="AY30" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>41</v>
+      </c>
+      <c r="AZ30" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>31</v>
+      </c>
+      <c r="BA30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>21</v>
+      </c>
+      <c r="BB30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>11</v>
+      </c>
+      <c r="BC30" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>01</v>
+      </c>
       <c r="BE30"/>
       <c r="BF30"/>
       <c r="BG30"/>
@@ -5320,6 +5628,116 @@
       <c r="BV30"/>
       <c r="BW30"/>
       <c r="BX30"/>
+    </row>
+    <row r="31" spans="3:76" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="AT31" s="24">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="4" t="str">
+        <f>(AU$33&amp;$AT31)</f>
+        <v>80</v>
+      </c>
+      <c r="AV31" s="5" t="str">
+        <f t="shared" si="73"/>
+        <v>70</v>
+      </c>
+      <c r="AW31" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>60</v>
+      </c>
+      <c r="AX31" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>50</v>
+      </c>
+      <c r="AY31" s="3" t="str">
+        <f t="shared" si="73"/>
+        <v>40</v>
+      </c>
+      <c r="AZ31" s="6" t="str">
+        <f t="shared" si="73"/>
+        <v>30</v>
+      </c>
+      <c r="BA31" s="7" t="str">
+        <f t="shared" si="73"/>
+        <v>20</v>
+      </c>
+      <c r="BB31" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>10</v>
+      </c>
+      <c r="BC31" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="32" spans="3:76" x14ac:dyDescent="0.15">
+      <c r="AT32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU32" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="24">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="24">
+        <v>2</v>
+      </c>
+      <c r="AX32" s="24">
+        <v>3</v>
+      </c>
+      <c r="AY32" s="24">
+        <v>4</v>
+      </c>
+      <c r="AZ32" s="24">
+        <v>5</v>
+      </c>
+      <c r="BA32" s="24">
+        <v>6</v>
+      </c>
+      <c r="BB32" s="24">
+        <v>7</v>
+      </c>
+      <c r="BC32" s="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="47:55" x14ac:dyDescent="0.15">
+      <c r="AU33" s="24">
+        <f t="shared" ref="AU33:BA33" si="74">AV33+1</f>
+        <v>8</v>
+      </c>
+      <c r="AV33" s="24">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="AW33" s="24">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="AX33" s="24">
+        <f t="shared" si="74"/>
+        <v>5</v>
+      </c>
+      <c r="AY33" s="24">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="AZ33" s="24">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="BA33" s="24">
+        <f t="shared" si="74"/>
+        <v>2</v>
+      </c>
+      <c r="BB33" s="24">
+        <f>BC33+1</f>
+        <v>1</v>
+      </c>
+      <c r="BC33" s="24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>左右对称交换：(wh//9+1)*9-wh%9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,12 +110,114 @@
     <t>【】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数独游戏模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blks = [[(i*bsize+y)*size+(j*bsize)+x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                for y in range(bsize) for x in range(bsize)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                for i in range(bsize) for j in range(bsize)]</t>
+  </si>
+  <si>
+    <t>rows = [[y for y in range(i*size, (i+1)*size)] for i in range(size)]</t>
+  </si>
+  <si>
+    <t>cols = [[x for x in range(i, size*size, size)] for i in range(size)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsize = int(math.sqrt(size))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    @property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def rows(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return [self.seat[y*size: (y+1)*size] for y in range(size)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def cols(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return [self.seat[x: size*size: size] for x in range(size)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    def blks(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return [[self.seat[(i*bsize+y)*size+(j*bsize)+x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bsize = int(math.sqrt(size)) </t>
+  </si>
+  <si>
+    <t>╋┣┫━</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>┻┃┳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>╂┿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +300,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,11 +359,77 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -257,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,6 +521,84 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,16 +904,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BX33"/>
+  <dimension ref="B1:CB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH19" workbookViewId="0">
-      <selection activeCell="BE30" sqref="BE30"/>
+    <sheetView tabSelected="1" topLeftCell="AN22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BE28" sqref="BE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="31" width="3.625" customWidth="1" outlineLevel="1"/>
     <col min="32" max="32" width="3.625" style="20"/>
+    <col min="61" max="61" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:76" x14ac:dyDescent="0.15">
@@ -3743,7 +4005,7 @@
       <c r="BW16"/>
       <c r="BX16"/>
     </row>
-    <row r="17" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
@@ -3856,7 +4118,7 @@
       <c r="BW17"/>
       <c r="BX17"/>
     </row>
-    <row r="18" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <f t="shared" si="72"/>
         <v>49</v>
@@ -3969,7 +4231,7 @@
       <c r="BW18"/>
       <c r="BX18"/>
     </row>
-    <row r="19" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="9">
         <f t="shared" si="72"/>
         <v>65</v>
@@ -4082,7 +4344,7 @@
       <c r="BW19"/>
       <c r="BX19"/>
     </row>
-    <row r="20" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="9">
         <f t="shared" si="72"/>
         <v>81</v>
@@ -4193,7 +4455,7 @@
       <c r="BW20"/>
       <c r="BX20"/>
     </row>
-    <row r="21" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="9">
         <f t="shared" si="72"/>
         <v>97</v>
@@ -4289,15 +4551,9 @@
       <c r="BC21" s="18"/>
       <c r="BE21"/>
       <c r="BF21"/>
-      <c r="BG21"/>
-      <c r="BH21"/>
-      <c r="BI21"/>
-      <c r="BJ21"/>
-      <c r="BK21"/>
-      <c r="BL21"/>
-      <c r="BM21"/>
-      <c r="BN21"/>
-      <c r="BP21"/>
+      <c r="BG21" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="BQ21"/>
       <c r="BR21"/>
       <c r="BS21"/>
@@ -4307,7 +4563,7 @@
       <c r="BW21"/>
       <c r="BX21"/>
     </row>
-    <row r="22" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="9">
         <f t="shared" si="72"/>
         <v>113</v>
@@ -4431,25 +4687,66 @@
         <v>18</v>
       </c>
       <c r="BF22"/>
-      <c r="BG22"/>
-      <c r="BH22"/>
-      <c r="BI22"/>
-      <c r="BJ22"/>
-      <c r="BK22"/>
-      <c r="BL22"/>
-      <c r="BM22"/>
-      <c r="BN22"/>
-      <c r="BP22"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="39">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="39">
+        <v>2</v>
+      </c>
+      <c r="BJ22" s="39">
+        <v>3</v>
+      </c>
+      <c r="BK22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BL22" s="39">
+        <v>5</v>
+      </c>
+      <c r="BM22" s="39">
+        <v>6</v>
+      </c>
+      <c r="BN22" s="39">
+        <v>7</v>
+      </c>
+      <c r="BO22" s="39">
+        <v>8</v>
+      </c>
+      <c r="BP22" s="39">
+        <v>9</v>
+      </c>
       <c r="BQ22"/>
       <c r="BR22"/>
-      <c r="BS22"/>
-      <c r="BT22"/>
-      <c r="BU22"/>
-      <c r="BV22"/>
-      <c r="BW22"/>
-      <c r="BX22"/>
+      <c r="BS22" s="28"/>
+      <c r="BT22" s="39">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="39">
+        <v>1</v>
+      </c>
+      <c r="BV22" s="39">
+        <v>2</v>
+      </c>
+      <c r="BW22" s="39">
+        <v>3</v>
+      </c>
+      <c r="BX22" s="39">
+        <v>4</v>
+      </c>
+      <c r="BY22" s="39">
+        <v>5</v>
+      </c>
+      <c r="BZ22" s="39">
+        <v>6</v>
+      </c>
+      <c r="CA22" s="39">
+        <v>7</v>
+      </c>
+      <c r="CB22" s="39">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="9">
         <f t="shared" si="72"/>
         <v>129</v>
@@ -4573,25 +4870,60 @@
         <v>19</v>
       </c>
       <c r="BF23"/>
-      <c r="BG23"/>
-      <c r="BH23"/>
-      <c r="BI23"/>
-      <c r="BJ23"/>
-      <c r="BK23"/>
-      <c r="BL23"/>
-      <c r="BM23"/>
-      <c r="BN23"/>
-      <c r="BP23"/>
+      <c r="BG23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH23" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="31">
+        <f>BH23+1</f>
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="31">
+        <f t="shared" ref="BJ23:BP23" si="74">BI23+1</f>
+        <v>2</v>
+      </c>
+      <c r="BK23" s="35">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="BL23" s="35">
+        <f t="shared" si="74"/>
+        <v>4</v>
+      </c>
+      <c r="BM23" s="35">
+        <f t="shared" si="74"/>
+        <v>5</v>
+      </c>
+      <c r="BN23" s="30">
+        <f t="shared" si="74"/>
+        <v>6</v>
+      </c>
+      <c r="BO23" s="30">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="BP23" s="30">
+        <f t="shared" si="74"/>
+        <v>8</v>
+      </c>
       <c r="BQ23"/>
       <c r="BR23"/>
-      <c r="BS23"/>
-      <c r="BT23"/>
-      <c r="BU23"/>
-      <c r="BV23"/>
-      <c r="BW23"/>
-      <c r="BX23"/>
+      <c r="BS23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="31"/>
+      <c r="BU23" s="31"/>
+      <c r="BV23" s="31"/>
+      <c r="BW23" s="35"/>
+      <c r="BX23" s="35"/>
+      <c r="BY23" s="35"/>
+      <c r="BZ23" s="30"/>
+      <c r="CA23" s="30"/>
+      <c r="CB23" s="30"/>
     </row>
-    <row r="24" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="9">
         <f t="shared" si="72"/>
         <v>145</v>
@@ -4715,25 +5047,60 @@
         <v>20</v>
       </c>
       <c r="BF24"/>
-      <c r="BG24"/>
-      <c r="BH24"/>
-      <c r="BI24"/>
-      <c r="BJ24"/>
-      <c r="BK24"/>
-      <c r="BL24"/>
-      <c r="BM24"/>
-      <c r="BN24"/>
-      <c r="BP24"/>
+      <c r="BG24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH24" s="31">
+        <v>9</v>
+      </c>
+      <c r="BI24" s="31">
+        <f t="shared" ref="BI24:BP31" si="75">BH24+1</f>
+        <v>10</v>
+      </c>
+      <c r="BJ24" s="31">
+        <f t="shared" si="75"/>
+        <v>11</v>
+      </c>
+      <c r="BK24" s="35">
+        <f t="shared" si="75"/>
+        <v>12</v>
+      </c>
+      <c r="BL24" s="35">
+        <f t="shared" si="75"/>
+        <v>13</v>
+      </c>
+      <c r="BM24" s="35">
+        <f t="shared" si="75"/>
+        <v>14</v>
+      </c>
+      <c r="BN24" s="30">
+        <f t="shared" si="75"/>
+        <v>15</v>
+      </c>
+      <c r="BO24" s="30">
+        <f t="shared" si="75"/>
+        <v>16</v>
+      </c>
+      <c r="BP24" s="30">
+        <f t="shared" si="75"/>
+        <v>17</v>
+      </c>
       <c r="BQ24"/>
       <c r="BR24"/>
-      <c r="BS24"/>
-      <c r="BT24"/>
-      <c r="BU24"/>
-      <c r="BV24"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
+      <c r="BS24" s="40">
+        <v>1</v>
+      </c>
+      <c r="BT24" s="31"/>
+      <c r="BU24" s="31"/>
+      <c r="BV24" s="31"/>
+      <c r="BW24" s="35"/>
+      <c r="BX24" s="35"/>
+      <c r="BY24" s="35"/>
+      <c r="BZ24" s="30"/>
+      <c r="CA24" s="30"/>
+      <c r="CB24" s="30"/>
     </row>
-    <row r="25" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="9">
         <f t="shared" si="72"/>
         <v>161</v>
@@ -4866,25 +5233,60 @@
         <v>21</v>
       </c>
       <c r="BF25"/>
-      <c r="BG25"/>
-      <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25"/>
-      <c r="BP25"/>
+      <c r="BG25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH25" s="31">
+        <v>18</v>
+      </c>
+      <c r="BI25" s="31">
+        <f t="shared" si="75"/>
+        <v>19</v>
+      </c>
+      <c r="BJ25" s="31">
+        <f t="shared" si="75"/>
+        <v>20</v>
+      </c>
+      <c r="BK25" s="35">
+        <f t="shared" si="75"/>
+        <v>21</v>
+      </c>
+      <c r="BL25" s="35">
+        <f t="shared" si="75"/>
+        <v>22</v>
+      </c>
+      <c r="BM25" s="35">
+        <f t="shared" si="75"/>
+        <v>23</v>
+      </c>
+      <c r="BN25" s="30">
+        <f t="shared" si="75"/>
+        <v>24</v>
+      </c>
+      <c r="BO25" s="30">
+        <f t="shared" si="75"/>
+        <v>25</v>
+      </c>
+      <c r="BP25" s="30">
+        <f t="shared" si="75"/>
+        <v>26</v>
+      </c>
       <c r="BQ25"/>
       <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
-      <c r="BU25"/>
-      <c r="BV25"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
+      <c r="BS25" s="40">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="31"/>
+      <c r="BU25" s="31"/>
+      <c r="BV25" s="31"/>
+      <c r="BW25" s="35"/>
+      <c r="BX25" s="35"/>
+      <c r="BY25" s="35"/>
+      <c r="BZ25" s="30"/>
+      <c r="CA25" s="30"/>
+      <c r="CB25" s="30"/>
     </row>
-    <row r="26" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="9">
         <f t="shared" si="72"/>
         <v>177</v>
@@ -5013,27 +5415,64 @@
         <f t="shared" si="73"/>
         <v>05</v>
       </c>
-      <c r="BE26"/>
+      <c r="BE26" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="BF26"/>
-      <c r="BG26"/>
-      <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26"/>
-      <c r="BP26"/>
+      <c r="BG26" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH26" s="29">
+        <v>27</v>
+      </c>
+      <c r="BI26" s="29">
+        <f t="shared" si="75"/>
+        <v>28</v>
+      </c>
+      <c r="BJ26" s="29">
+        <f t="shared" si="75"/>
+        <v>29</v>
+      </c>
+      <c r="BK26" s="37">
+        <f t="shared" si="75"/>
+        <v>30</v>
+      </c>
+      <c r="BL26" s="37">
+        <f t="shared" si="75"/>
+        <v>31</v>
+      </c>
+      <c r="BM26" s="37">
+        <f t="shared" si="75"/>
+        <v>32</v>
+      </c>
+      <c r="BN26" s="36">
+        <f t="shared" si="75"/>
+        <v>33</v>
+      </c>
+      <c r="BO26" s="36">
+        <f t="shared" si="75"/>
+        <v>34</v>
+      </c>
+      <c r="BP26" s="36">
+        <f t="shared" si="75"/>
+        <v>35</v>
+      </c>
       <c r="BQ26"/>
       <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
+      <c r="BS26" s="40">
+        <v>3</v>
+      </c>
+      <c r="BT26" s="29"/>
+      <c r="BU26" s="29"/>
+      <c r="BV26" s="29"/>
+      <c r="BW26" s="37"/>
+      <c r="BX26" s="37"/>
+      <c r="BY26" s="37"/>
+      <c r="BZ26" s="36"/>
+      <c r="CA26" s="36"/>
+      <c r="CB26" s="36"/>
     </row>
-    <row r="27" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="9">
         <f t="shared" si="72"/>
         <v>193</v>
@@ -5162,27 +5601,64 @@
         <f t="shared" si="73"/>
         <v>04</v>
       </c>
-      <c r="BE27"/>
+      <c r="BE27" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="BF27"/>
-      <c r="BG27"/>
-      <c r="BH27"/>
-      <c r="BI27"/>
-      <c r="BJ27"/>
-      <c r="BK27"/>
-      <c r="BL27"/>
-      <c r="BM27"/>
-      <c r="BN27"/>
-      <c r="BP27"/>
+      <c r="BG27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH27" s="29">
+        <v>36</v>
+      </c>
+      <c r="BI27" s="29">
+        <f t="shared" si="75"/>
+        <v>37</v>
+      </c>
+      <c r="BJ27" s="29">
+        <f t="shared" si="75"/>
+        <v>38</v>
+      </c>
+      <c r="BK27" s="37">
+        <f t="shared" si="75"/>
+        <v>39</v>
+      </c>
+      <c r="BL27" s="37">
+        <f t="shared" si="75"/>
+        <v>40</v>
+      </c>
+      <c r="BM27" s="37">
+        <f t="shared" si="75"/>
+        <v>41</v>
+      </c>
+      <c r="BN27" s="36">
+        <f t="shared" si="75"/>
+        <v>42</v>
+      </c>
+      <c r="BO27" s="36">
+        <f t="shared" si="75"/>
+        <v>43</v>
+      </c>
+      <c r="BP27" s="36">
+        <f t="shared" si="75"/>
+        <v>44</v>
+      </c>
       <c r="BQ27"/>
       <c r="BR27"/>
-      <c r="BS27"/>
-      <c r="BT27"/>
-      <c r="BU27"/>
-      <c r="BV27"/>
-      <c r="BW27"/>
-      <c r="BX27"/>
+      <c r="BS27" s="40">
+        <v>4</v>
+      </c>
+      <c r="BT27" s="29"/>
+      <c r="BU27" s="29"/>
+      <c r="BV27" s="29"/>
+      <c r="BW27" s="37"/>
+      <c r="BX27" s="37"/>
+      <c r="BY27" s="37"/>
+      <c r="BZ27" s="36"/>
+      <c r="CA27" s="36"/>
+      <c r="CB27" s="36"/>
     </row>
-    <row r="28" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9">
         <f t="shared" si="72"/>
         <v>209</v>
@@ -5311,27 +5787,64 @@
         <f t="shared" si="73"/>
         <v>03</v>
       </c>
-      <c r="BE28"/>
+      <c r="BE28" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="BF28"/>
-      <c r="BG28"/>
-      <c r="BH28"/>
-      <c r="BI28"/>
-      <c r="BJ28"/>
-      <c r="BK28"/>
-      <c r="BL28"/>
-      <c r="BM28"/>
-      <c r="BN28"/>
-      <c r="BP28"/>
+      <c r="BG28" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH28" s="29">
+        <v>45</v>
+      </c>
+      <c r="BI28" s="29">
+        <f t="shared" si="75"/>
+        <v>46</v>
+      </c>
+      <c r="BJ28" s="29">
+        <f t="shared" si="75"/>
+        <v>47</v>
+      </c>
+      <c r="BK28" s="37">
+        <f t="shared" si="75"/>
+        <v>48</v>
+      </c>
+      <c r="BL28" s="37">
+        <f t="shared" si="75"/>
+        <v>49</v>
+      </c>
+      <c r="BM28" s="37">
+        <f t="shared" si="75"/>
+        <v>50</v>
+      </c>
+      <c r="BN28" s="36">
+        <f t="shared" si="75"/>
+        <v>51</v>
+      </c>
+      <c r="BO28" s="36">
+        <f t="shared" si="75"/>
+        <v>52</v>
+      </c>
+      <c r="BP28" s="36">
+        <f t="shared" si="75"/>
+        <v>53</v>
+      </c>
       <c r="BQ28"/>
       <c r="BR28"/>
-      <c r="BS28"/>
-      <c r="BT28"/>
-      <c r="BU28"/>
-      <c r="BV28"/>
-      <c r="BW28"/>
-      <c r="BX28"/>
+      <c r="BS28" s="40">
+        <v>5</v>
+      </c>
+      <c r="BT28" s="29"/>
+      <c r="BU28" s="29"/>
+      <c r="BV28" s="29"/>
+      <c r="BW28" s="37"/>
+      <c r="BX28" s="37"/>
+      <c r="BY28" s="37"/>
+      <c r="BZ28" s="36"/>
+      <c r="CA28" s="36"/>
+      <c r="CB28" s="36"/>
     </row>
-    <row r="29" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="9">
         <f t="shared" si="72"/>
         <v>225</v>
@@ -5462,25 +5975,60 @@
       </c>
       <c r="BE29"/>
       <c r="BF29"/>
-      <c r="BG29"/>
-      <c r="BH29"/>
-      <c r="BI29"/>
-      <c r="BJ29"/>
-      <c r="BK29"/>
-      <c r="BL29"/>
-      <c r="BM29"/>
-      <c r="BN29"/>
-      <c r="BP29"/>
+      <c r="BG29" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH29" s="34">
+        <v>54</v>
+      </c>
+      <c r="BI29" s="34">
+        <f t="shared" si="75"/>
+        <v>55</v>
+      </c>
+      <c r="BJ29" s="34">
+        <f t="shared" si="75"/>
+        <v>56</v>
+      </c>
+      <c r="BK29" s="33">
+        <f t="shared" si="75"/>
+        <v>57</v>
+      </c>
+      <c r="BL29" s="33">
+        <f t="shared" si="75"/>
+        <v>58</v>
+      </c>
+      <c r="BM29" s="33">
+        <f t="shared" si="75"/>
+        <v>59</v>
+      </c>
+      <c r="BN29" s="32">
+        <f t="shared" si="75"/>
+        <v>60</v>
+      </c>
+      <c r="BO29" s="32">
+        <f t="shared" si="75"/>
+        <v>61</v>
+      </c>
+      <c r="BP29" s="32">
+        <f t="shared" si="75"/>
+        <v>62</v>
+      </c>
       <c r="BQ29"/>
       <c r="BR29"/>
-      <c r="BS29"/>
-      <c r="BT29"/>
-      <c r="BU29"/>
-      <c r="BV29"/>
-      <c r="BW29"/>
-      <c r="BX29"/>
+      <c r="BS29" s="40">
+        <v>6</v>
+      </c>
+      <c r="BT29" s="34"/>
+      <c r="BU29" s="34"/>
+      <c r="BV29" s="34"/>
+      <c r="BW29" s="33"/>
+      <c r="BX29" s="33"/>
+      <c r="BY29" s="33"/>
+      <c r="BZ29" s="32"/>
+      <c r="CA29" s="32"/>
+      <c r="CB29" s="32"/>
     </row>
-    <row r="30" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="9">
         <f t="shared" si="72"/>
         <v>241</v>
@@ -5611,25 +6159,60 @@
       </c>
       <c r="BE30"/>
       <c r="BF30"/>
-      <c r="BG30"/>
-      <c r="BH30"/>
-      <c r="BI30"/>
-      <c r="BJ30"/>
-      <c r="BK30"/>
-      <c r="BL30"/>
-      <c r="BM30"/>
-      <c r="BN30"/>
-      <c r="BP30"/>
+      <c r="BG30" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH30" s="34">
+        <v>63</v>
+      </c>
+      <c r="BI30" s="34">
+        <f t="shared" si="75"/>
+        <v>64</v>
+      </c>
+      <c r="BJ30" s="34">
+        <f t="shared" si="75"/>
+        <v>65</v>
+      </c>
+      <c r="BK30" s="33">
+        <f t="shared" si="75"/>
+        <v>66</v>
+      </c>
+      <c r="BL30" s="33">
+        <f t="shared" si="75"/>
+        <v>67</v>
+      </c>
+      <c r="BM30" s="33">
+        <f t="shared" si="75"/>
+        <v>68</v>
+      </c>
+      <c r="BN30" s="32">
+        <f t="shared" si="75"/>
+        <v>69</v>
+      </c>
+      <c r="BO30" s="32">
+        <f t="shared" si="75"/>
+        <v>70</v>
+      </c>
+      <c r="BP30" s="32">
+        <f t="shared" si="75"/>
+        <v>71</v>
+      </c>
       <c r="BQ30"/>
       <c r="BR30"/>
-      <c r="BS30"/>
-      <c r="BT30"/>
-      <c r="BU30"/>
-      <c r="BV30"/>
-      <c r="BW30"/>
-      <c r="BX30"/>
+      <c r="BS30" s="40">
+        <v>7</v>
+      </c>
+      <c r="BT30" s="34"/>
+      <c r="BU30" s="34"/>
+      <c r="BV30" s="34"/>
+      <c r="BW30" s="33"/>
+      <c r="BX30" s="33"/>
+      <c r="BY30" s="33"/>
+      <c r="BZ30" s="32"/>
+      <c r="CA30" s="32"/>
+      <c r="CB30" s="32"/>
     </row>
-    <row r="31" spans="3:76" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:80" ht="16.5" x14ac:dyDescent="0.15">
       <c r="AT31" s="24">
         <v>0</v>
       </c>
@@ -5669,8 +6252,58 @@
         <f t="shared" si="73"/>
         <v>00</v>
       </c>
+      <c r="BG31" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="BH31" s="34">
+        <v>72</v>
+      </c>
+      <c r="BI31" s="34">
+        <f t="shared" si="75"/>
+        <v>73</v>
+      </c>
+      <c r="BJ31" s="34">
+        <f t="shared" si="75"/>
+        <v>74</v>
+      </c>
+      <c r="BK31" s="33">
+        <f t="shared" si="75"/>
+        <v>75</v>
+      </c>
+      <c r="BL31" s="33">
+        <f t="shared" si="75"/>
+        <v>76</v>
+      </c>
+      <c r="BM31" s="33">
+        <f t="shared" si="75"/>
+        <v>77</v>
+      </c>
+      <c r="BN31" s="32">
+        <f t="shared" si="75"/>
+        <v>78</v>
+      </c>
+      <c r="BO31" s="32">
+        <f t="shared" si="75"/>
+        <v>79</v>
+      </c>
+      <c r="BP31" s="32">
+        <f t="shared" si="75"/>
+        <v>80</v>
+      </c>
+      <c r="BS31" s="40">
+        <v>8</v>
+      </c>
+      <c r="BT31" s="34"/>
+      <c r="BU31" s="34"/>
+      <c r="BV31" s="34"/>
+      <c r="BW31" s="33"/>
+      <c r="BX31" s="33"/>
+      <c r="BY31" s="33"/>
+      <c r="BZ31" s="32"/>
+      <c r="CA31" s="32"/>
+      <c r="CB31" s="32"/>
     </row>
-    <row r="32" spans="3:76" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:80" x14ac:dyDescent="0.15">
       <c r="AT32" s="19" t="s">
         <v>2</v>
       </c>
@@ -5702,33 +6335,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="47:55" x14ac:dyDescent="0.15">
+    <row r="33" spans="47:60" x14ac:dyDescent="0.15">
       <c r="AU33" s="24">
-        <f t="shared" ref="AU33:BA33" si="74">AV33+1</f>
+        <f t="shared" ref="AU33:BA33" si="76">AV33+1</f>
         <v>8</v>
       </c>
       <c r="AV33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>7</v>
       </c>
       <c r="AW33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>6</v>
       </c>
       <c r="AX33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5</v>
       </c>
       <c r="AY33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>4</v>
       </c>
       <c r="AZ33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="BA33" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="BB33" s="24">
@@ -5737,6 +6370,104 @@
       </c>
       <c r="BC33" s="24">
         <v>0</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="47:60" x14ac:dyDescent="0.15">
+      <c r="BH48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="60:60" x14ac:dyDescent="0.15">
+      <c r="BH49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="60:60" x14ac:dyDescent="0.15">
+      <c r="BH50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="60:60" x14ac:dyDescent="0.15">
+      <c r="BH51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="60:60" x14ac:dyDescent="0.15">
+      <c r="BH52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="60:60" x14ac:dyDescent="0.15">
+      <c r="BH53" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -5748,12 +6479,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="4" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="27">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41">
+        <v>3</v>
+      </c>
+      <c r="E1" s="41">
+        <v>4</v>
+      </c>
+      <c r="F1" s="41">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41">
+        <v>6</v>
+      </c>
+      <c r="H1" s="41">
+        <v>7</v>
+      </c>
+      <c r="I1" s="41">
+        <v>8</v>
+      </c>
+      <c r="J1" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44">
+        <f>B2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="44">
+        <f t="shared" ref="D2:J2" si="0">C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F2" s="45">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2" s="45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J2" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="44">
+        <v>9</v>
+      </c>
+      <c r="C3" s="44">
+        <f t="shared" ref="C3:J10" si="1">B3+1</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="44">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G3" s="45">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="46">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="46">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="46">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="44">
+        <v>18</v>
+      </c>
+      <c r="C4" s="44">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="44">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="45">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="45">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G4" s="45">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H4" s="46">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="46">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J4" s="46">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="47">
+        <v>27</v>
+      </c>
+      <c r="C5" s="47">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="47">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="48">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="48">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H5" s="49">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I5" s="49">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="J5" s="49">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="47">
+        <v>36</v>
+      </c>
+      <c r="C6" s="47">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="47">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="E6" s="48">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="48">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="48">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H6" s="49">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="49">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="J6" s="49">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="47">
+        <v>45</v>
+      </c>
+      <c r="C7" s="47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D7" s="47">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="E7" s="48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F7" s="48">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="G7" s="48">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="I7" s="49">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J7" s="49">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="50">
+        <v>54</v>
+      </c>
+      <c r="C8" s="50">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D8" s="50">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E8" s="51">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F8" s="51">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G8" s="51">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="H8" s="52">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="J8" s="52">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="50">
+        <v>63</v>
+      </c>
+      <c r="C9" s="50">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="50">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E9" s="51">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F9" s="51">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="G9" s="51">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="H9" s="52">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J9" s="52">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="50">
+        <v>72</v>
+      </c>
+      <c r="C10" s="50">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D10" s="50">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E10" s="51">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F10" s="51">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="G10" s="51">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="H10" s="52">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J10" s="52">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>左右对称交换：(wh//9+1)*9-wh%9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,26 @@
   </si>
   <si>
     <t>╂┿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGN位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,18 +926,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BE28" sqref="BE28"/>
+    <sheetView tabSelected="1" topLeftCell="AF25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BE35" sqref="BE35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="31" width="3.625" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="3.625" style="20"/>
+    <col min="2" max="31" width="3.6328125" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="3.6328125" style="20"/>
     <col min="61" max="61" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:76" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:76" x14ac:dyDescent="0.25">
       <c r="AI1" s="18" t="s">
         <v>3</v>
       </c>
@@ -991,7 +1011,7 @@
       <c r="BW1" s="18"/>
       <c r="BX1" s="18"/>
     </row>
-    <row r="2" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4">
         <v>0</v>
       </c>
@@ -1247,7 +1267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2">
         <f t="shared" ref="C3:C11" si="46">C2+9</f>
         <v>9</v>
@@ -1512,7 +1532,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7">
         <f t="shared" si="46"/>
         <v>18</v>
@@ -1777,7 +1797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <f t="shared" si="46"/>
         <v>27</v>
@@ -2042,7 +2062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f t="shared" si="46"/>
         <v>36</v>
@@ -2307,7 +2327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <f t="shared" si="46"/>
         <v>45</v>
@@ -2572,7 +2592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <f t="shared" si="46"/>
         <v>54</v>
@@ -2837,7 +2857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7">
         <f t="shared" si="46"/>
         <v>63</v>
@@ -3102,7 +3122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <f t="shared" si="46"/>
         <v>72</v>
@@ -3367,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <f t="shared" si="46"/>
         <v>81</v>
@@ -3631,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -3724,7 +3744,7 @@
       <c r="BV12" s="18"/>
       <c r="BW12" s="18"/>
     </row>
-    <row r="13" spans="3:76" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:76" x14ac:dyDescent="0.25">
       <c r="AI13" s="18">
         <v>0</v>
       </c>
@@ -3751,6 +3771,9 @@
       </c>
       <c r="AQ13" s="18">
         <v>8</v>
+      </c>
+      <c r="AT13" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="AU13" s="24">
         <v>0</v>
@@ -3796,7 +3819,7 @@
       <c r="BW13" s="18"/>
       <c r="BX13" s="18"/>
     </row>
-    <row r="15" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="9">
         <v>1</v>
       </c>
@@ -3894,7 +3917,7 @@
       <c r="BW15"/>
       <c r="BX15"/>
     </row>
-    <row r="16" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <f>C15+16</f>
         <v>17</v>
@@ -4005,7 +4028,7 @@
       <c r="BW16"/>
       <c r="BX16"/>
     </row>
-    <row r="17" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="9">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
@@ -4118,7 +4141,7 @@
       <c r="BW17"/>
       <c r="BX17"/>
     </row>
-    <row r="18" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="9">
         <f t="shared" si="72"/>
         <v>49</v>
@@ -4231,7 +4254,7 @@
       <c r="BW18"/>
       <c r="BX18"/>
     </row>
-    <row r="19" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="9">
         <f t="shared" si="72"/>
         <v>65</v>
@@ -4344,7 +4367,7 @@
       <c r="BW19"/>
       <c r="BX19"/>
     </row>
-    <row r="20" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="9">
         <f t="shared" si="72"/>
         <v>81</v>
@@ -4455,7 +4478,7 @@
       <c r="BW20"/>
       <c r="BX20"/>
     </row>
-    <row r="21" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="9">
         <f t="shared" si="72"/>
         <v>97</v>
@@ -4563,7 +4586,7 @@
       <c r="BW21"/>
       <c r="BX21"/>
     </row>
-    <row r="22" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="9">
         <f t="shared" si="72"/>
         <v>113</v>
@@ -4648,40 +4671,40 @@
         <v>9</v>
       </c>
       <c r="AU22" s="4" t="str">
-        <f t="shared" ref="AU22:BC31" si="73">(AU$33&amp;$AT22)</f>
+        <f>(AU$32&amp;$AT22)</f>
+        <v>09</v>
+      </c>
+      <c r="AV22" s="5" t="str">
+        <f>(AV$32&amp;$AT22)</f>
+        <v>19</v>
+      </c>
+      <c r="AW22" s="7" t="str">
+        <f>(AW$32&amp;$AT22)</f>
+        <v>29</v>
+      </c>
+      <c r="AX22" s="6" t="str">
+        <f>(AX$32&amp;$AT22)</f>
+        <v>39</v>
+      </c>
+      <c r="AY22" s="3" t="str">
+        <f>(AY$32&amp;$AT22)</f>
+        <v>49</v>
+      </c>
+      <c r="AZ22" s="6" t="str">
+        <f>(AZ$32&amp;$AT22)</f>
+        <v>59</v>
+      </c>
+      <c r="BA22" s="7" t="str">
+        <f>(BA$32&amp;$AT22)</f>
+        <v>69</v>
+      </c>
+      <c r="BB22" s="4" t="str">
+        <f>(BB$32&amp;$AT22)</f>
+        <v>79</v>
+      </c>
+      <c r="BC22" s="4" t="str">
+        <f>(BC$32&amp;$AT22)</f>
         <v>89</v>
-      </c>
-      <c r="AV22" s="5" t="str">
-        <f t="shared" si="73"/>
-        <v>79</v>
-      </c>
-      <c r="AW22" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>69</v>
-      </c>
-      <c r="AX22" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>59</v>
-      </c>
-      <c r="AY22" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>49</v>
-      </c>
-      <c r="AZ22" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>39</v>
-      </c>
-      <c r="BA22" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>29</v>
-      </c>
-      <c r="BB22" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>19</v>
-      </c>
-      <c r="BC22" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>09</v>
       </c>
       <c r="BE22" s="26" t="s">
         <v>18</v>
@@ -4746,7 +4769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="9">
         <f t="shared" si="72"/>
         <v>129</v>
@@ -4831,40 +4854,40 @@
         <v>8</v>
       </c>
       <c r="AU23" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT23)</f>
+        <v>08</v>
+      </c>
+      <c r="AV23" s="2" t="str">
+        <f>(AV$32&amp;$AT23)</f>
+        <v>18</v>
+      </c>
+      <c r="AW23" s="2" t="str">
+        <f>(AW$32&amp;$AT23)</f>
+        <v>28</v>
+      </c>
+      <c r="AX23" s="3" t="str">
+        <f>(AX$32&amp;$AT23)</f>
+        <v>38</v>
+      </c>
+      <c r="AY23" s="6" t="str">
+        <f>(AY$32&amp;$AT23)</f>
+        <v>48</v>
+      </c>
+      <c r="AZ23" s="3" t="str">
+        <f>(AZ$32&amp;$AT23)</f>
+        <v>58</v>
+      </c>
+      <c r="BA23" s="2" t="str">
+        <f>(BA$32&amp;$AT23)</f>
+        <v>68</v>
+      </c>
+      <c r="BB23" s="2" t="str">
+        <f>(BB$32&amp;$AT23)</f>
+        <v>78</v>
+      </c>
+      <c r="BC23" s="2" t="str">
+        <f>(BC$32&amp;$AT23)</f>
         <v>88</v>
-      </c>
-      <c r="AV23" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>78</v>
-      </c>
-      <c r="AW23" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>68</v>
-      </c>
-      <c r="AX23" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>58</v>
-      </c>
-      <c r="AY23" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>48</v>
-      </c>
-      <c r="AZ23" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>38</v>
-      </c>
-      <c r="BA23" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>28</v>
-      </c>
-      <c r="BB23" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>18</v>
-      </c>
-      <c r="BC23" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>08</v>
       </c>
       <c r="BE23" s="26" t="s">
         <v>19</v>
@@ -4881,31 +4904,31 @@
         <v>1</v>
       </c>
       <c r="BJ23" s="31">
-        <f t="shared" ref="BJ23:BP23" si="74">BI23+1</f>
+        <f t="shared" ref="BJ23:BP23" si="73">BI23+1</f>
         <v>2</v>
       </c>
       <c r="BK23" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="BL23" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="BM23" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>5</v>
       </c>
       <c r="BN23" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>6</v>
       </c>
       <c r="BO23" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>7</v>
       </c>
       <c r="BP23" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="73"/>
         <v>8</v>
       </c>
       <c r="BQ23"/>
@@ -4923,7 +4946,7 @@
       <c r="CA23" s="30"/>
       <c r="CB23" s="30"/>
     </row>
-    <row r="24" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="9">
         <f t="shared" si="72"/>
         <v>145</v>
@@ -5008,40 +5031,40 @@
         <v>7</v>
       </c>
       <c r="AU24" s="7" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT24)</f>
+        <v>07</v>
+      </c>
+      <c r="AV24" s="2" t="str">
+        <f>(AV$32&amp;$AT24)</f>
+        <v>17</v>
+      </c>
+      <c r="AW24" s="2" t="str">
+        <f>(AW$32&amp;$AT24)</f>
+        <v>27</v>
+      </c>
+      <c r="AX24" s="6" t="str">
+        <f>(AX$32&amp;$AT24)</f>
+        <v>37</v>
+      </c>
+      <c r="AY24" s="8" t="str">
+        <f>(AY$32&amp;$AT24)</f>
+        <v>47</v>
+      </c>
+      <c r="AZ24" s="6" t="str">
+        <f>(AZ$32&amp;$AT24)</f>
+        <v>57</v>
+      </c>
+      <c r="BA24" s="2" t="str">
+        <f>(BA$32&amp;$AT24)</f>
+        <v>67</v>
+      </c>
+      <c r="BB24" s="2" t="str">
+        <f>(BB$32&amp;$AT24)</f>
+        <v>77</v>
+      </c>
+      <c r="BC24" s="7" t="str">
+        <f>(BC$32&amp;$AT24)</f>
         <v>87</v>
-      </c>
-      <c r="AV24" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>77</v>
-      </c>
-      <c r="AW24" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>67</v>
-      </c>
-      <c r="AX24" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>57</v>
-      </c>
-      <c r="AY24" s="8" t="str">
-        <f t="shared" si="73"/>
-        <v>47</v>
-      </c>
-      <c r="AZ24" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>37</v>
-      </c>
-      <c r="BA24" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>27</v>
-      </c>
-      <c r="BB24" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>17</v>
-      </c>
-      <c r="BC24" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>07</v>
       </c>
       <c r="BE24" s="26" t="s">
         <v>20</v>
@@ -5054,35 +5077,35 @@
         <v>9</v>
       </c>
       <c r="BI24" s="31">
-        <f t="shared" ref="BI24:BP31" si="75">BH24+1</f>
+        <f t="shared" ref="BI24:BP31" si="74">BH24+1</f>
         <v>10</v>
       </c>
       <c r="BJ24" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>11</v>
       </c>
       <c r="BK24" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>12</v>
       </c>
       <c r="BL24" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>13</v>
       </c>
       <c r="BM24" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>14</v>
       </c>
       <c r="BN24" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>15</v>
       </c>
       <c r="BO24" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>16</v>
       </c>
       <c r="BP24" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>17</v>
       </c>
       <c r="BQ24"/>
@@ -5100,7 +5123,7 @@
       <c r="CA24" s="30"/>
       <c r="CB24" s="30"/>
     </row>
-    <row r="25" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="9">
         <f t="shared" si="72"/>
         <v>161</v>
@@ -5194,40 +5217,40 @@
         <v>6</v>
       </c>
       <c r="AU25" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT25)</f>
+        <v>06</v>
+      </c>
+      <c r="AV25" s="2" t="str">
+        <f>(AV$32&amp;$AT25)</f>
+        <v>16</v>
+      </c>
+      <c r="AW25" s="2" t="str">
+        <f>(AW$32&amp;$AT25)</f>
+        <v>26</v>
+      </c>
+      <c r="AX25" s="2" t="str">
+        <f>(AX$32&amp;$AT25)</f>
+        <v>36</v>
+      </c>
+      <c r="AY25" s="2" t="str">
+        <f>(AY$32&amp;$AT25)</f>
+        <v>46</v>
+      </c>
+      <c r="AZ25" s="2" t="str">
+        <f>(AZ$32&amp;$AT25)</f>
+        <v>56</v>
+      </c>
+      <c r="BA25" s="2" t="str">
+        <f>(BA$32&amp;$AT25)</f>
+        <v>66</v>
+      </c>
+      <c r="BB25" s="2" t="str">
+        <f>(BB$32&amp;$AT25)</f>
+        <v>76</v>
+      </c>
+      <c r="BC25" s="2" t="str">
+        <f>(BC$32&amp;$AT25)</f>
         <v>86</v>
-      </c>
-      <c r="AV25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>76</v>
-      </c>
-      <c r="AW25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>66</v>
-      </c>
-      <c r="AX25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>56</v>
-      </c>
-      <c r="AY25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>46</v>
-      </c>
-      <c r="AZ25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>36</v>
-      </c>
-      <c r="BA25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>26</v>
-      </c>
-      <c r="BB25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>16</v>
-      </c>
-      <c r="BC25" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>06</v>
       </c>
       <c r="BE25" s="26" t="s">
         <v>21</v>
@@ -5240,35 +5263,35 @@
         <v>18</v>
       </c>
       <c r="BI25" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>19</v>
       </c>
       <c r="BJ25" s="31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>20</v>
       </c>
       <c r="BK25" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>21</v>
       </c>
       <c r="BL25" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>22</v>
       </c>
       <c r="BM25" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>23</v>
       </c>
       <c r="BN25" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>24</v>
       </c>
       <c r="BO25" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>25</v>
       </c>
       <c r="BP25" s="30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>26</v>
       </c>
       <c r="BQ25"/>
@@ -5286,7 +5309,7 @@
       <c r="CA25" s="30"/>
       <c r="CB25" s="30"/>
     </row>
-    <row r="26" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="9">
         <f t="shared" si="72"/>
         <v>177</v>
@@ -5380,40 +5403,40 @@
         <v>5</v>
       </c>
       <c r="AU26" s="2" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT26)</f>
+        <v>05</v>
+      </c>
+      <c r="AV26" s="2" t="str">
+        <f>(AV$32&amp;$AT26)</f>
+        <v>15</v>
+      </c>
+      <c r="AW26" s="7" t="str">
+        <f>(AW$32&amp;$AT26)</f>
+        <v>25</v>
+      </c>
+      <c r="AX26" s="2" t="str">
+        <f>(AX$32&amp;$AT26)</f>
+        <v>35</v>
+      </c>
+      <c r="AY26" s="2" t="str">
+        <f>(AY$32&amp;$AT26)</f>
+        <v>45</v>
+      </c>
+      <c r="AZ26" s="2" t="str">
+        <f>(AZ$32&amp;$AT26)</f>
+        <v>55</v>
+      </c>
+      <c r="BA26" s="7" t="str">
+        <f>(BA$32&amp;$AT26)</f>
+        <v>65</v>
+      </c>
+      <c r="BB26" s="2" t="str">
+        <f>(BB$32&amp;$AT26)</f>
+        <v>75</v>
+      </c>
+      <c r="BC26" s="2" t="str">
+        <f>(BC$32&amp;$AT26)</f>
         <v>85</v>
-      </c>
-      <c r="AV26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>75</v>
-      </c>
-      <c r="AW26" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>65</v>
-      </c>
-      <c r="AX26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>55</v>
-      </c>
-      <c r="AY26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>45</v>
-      </c>
-      <c r="AZ26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>35</v>
-      </c>
-      <c r="BA26" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>25</v>
-      </c>
-      <c r="BB26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>15</v>
-      </c>
-      <c r="BC26" s="2" t="str">
-        <f t="shared" si="73"/>
-        <v>05</v>
       </c>
       <c r="BE26" s="26" t="s">
         <v>48</v>
@@ -5426,35 +5449,35 @@
         <v>27</v>
       </c>
       <c r="BI26" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>28</v>
       </c>
       <c r="BJ26" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>29</v>
       </c>
       <c r="BK26" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>30</v>
       </c>
       <c r="BL26" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>31</v>
       </c>
       <c r="BM26" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>32</v>
       </c>
       <c r="BN26" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>33</v>
       </c>
       <c r="BO26" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>34</v>
       </c>
       <c r="BP26" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>35</v>
       </c>
       <c r="BQ26"/>
@@ -5472,7 +5495,7 @@
       <c r="CA26" s="36"/>
       <c r="CB26" s="36"/>
     </row>
-    <row r="27" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="9">
         <f t="shared" si="72"/>
         <v>193</v>
@@ -5566,40 +5589,40 @@
         <v>4</v>
       </c>
       <c r="AU27" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT27)</f>
+        <v>04</v>
+      </c>
+      <c r="AV27" s="4" t="str">
+        <f>(AV$32&amp;$AT27)</f>
+        <v>14</v>
+      </c>
+      <c r="AW27" s="7" t="str">
+        <f>(AW$32&amp;$AT27)</f>
+        <v>24</v>
+      </c>
+      <c r="AX27" s="4" t="str">
+        <f>(AX$32&amp;$AT27)</f>
+        <v>34</v>
+      </c>
+      <c r="AY27" s="4" t="str">
+        <f>(AY$32&amp;$AT27)</f>
+        <v>44</v>
+      </c>
+      <c r="AZ27" s="4" t="str">
+        <f>(AZ$32&amp;$AT27)</f>
+        <v>54</v>
+      </c>
+      <c r="BA27" s="7" t="str">
+        <f>(BA$32&amp;$AT27)</f>
+        <v>64</v>
+      </c>
+      <c r="BB27" s="4" t="str">
+        <f>(BB$32&amp;$AT27)</f>
+        <v>74</v>
+      </c>
+      <c r="BC27" s="4" t="str">
+        <f>(BC$32&amp;$AT27)</f>
         <v>84</v>
-      </c>
-      <c r="AV27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>74</v>
-      </c>
-      <c r="AW27" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>64</v>
-      </c>
-      <c r="AX27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>54</v>
-      </c>
-      <c r="AY27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>44</v>
-      </c>
-      <c r="AZ27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>34</v>
-      </c>
-      <c r="BA27" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>24</v>
-      </c>
-      <c r="BB27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>14</v>
-      </c>
-      <c r="BC27" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>04</v>
       </c>
       <c r="BE27" s="26" t="s">
         <v>49</v>
@@ -5612,35 +5635,35 @@
         <v>36</v>
       </c>
       <c r="BI27" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>37</v>
       </c>
       <c r="BJ27" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>38</v>
       </c>
       <c r="BK27" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>39</v>
       </c>
       <c r="BL27" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>40</v>
       </c>
       <c r="BM27" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>41</v>
       </c>
       <c r="BN27" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>42</v>
       </c>
       <c r="BO27" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>43</v>
       </c>
       <c r="BP27" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>44</v>
       </c>
       <c r="BQ27"/>
@@ -5658,7 +5681,7 @@
       <c r="CA27" s="36"/>
       <c r="CB27" s="36"/>
     </row>
-    <row r="28" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="9">
         <f t="shared" si="72"/>
         <v>209</v>
@@ -5752,40 +5775,40 @@
         <v>3</v>
       </c>
       <c r="AU28" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT28)</f>
+        <v>03</v>
+      </c>
+      <c r="AV28" s="4" t="str">
+        <f>(AV$32&amp;$AT28)</f>
+        <v>13</v>
+      </c>
+      <c r="AW28" s="4" t="str">
+        <f>(AW$32&amp;$AT28)</f>
+        <v>23</v>
+      </c>
+      <c r="AX28" s="4" t="str">
+        <f>(AX$32&amp;$AT28)</f>
+        <v>33</v>
+      </c>
+      <c r="AY28" s="4" t="str">
+        <f>(AY$32&amp;$AT28)</f>
+        <v>43</v>
+      </c>
+      <c r="AZ28" s="4" t="str">
+        <f>(AZ$32&amp;$AT28)</f>
+        <v>53</v>
+      </c>
+      <c r="BA28" s="4" t="str">
+        <f>(BA$32&amp;$AT28)</f>
+        <v>63</v>
+      </c>
+      <c r="BB28" s="4" t="str">
+        <f>(BB$32&amp;$AT28)</f>
+        <v>73</v>
+      </c>
+      <c r="BC28" s="4" t="str">
+        <f>(BC$32&amp;$AT28)</f>
         <v>83</v>
-      </c>
-      <c r="AV28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>73</v>
-      </c>
-      <c r="AW28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>63</v>
-      </c>
-      <c r="AX28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>53</v>
-      </c>
-      <c r="AY28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>43</v>
-      </c>
-      <c r="AZ28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>33</v>
-      </c>
-      <c r="BA28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>23</v>
-      </c>
-      <c r="BB28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>13</v>
-      </c>
-      <c r="BC28" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>03</v>
       </c>
       <c r="BE28" s="26" t="s">
         <v>50</v>
@@ -5798,35 +5821,35 @@
         <v>45</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>46</v>
       </c>
       <c r="BJ28" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>47</v>
       </c>
       <c r="BK28" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>48</v>
       </c>
       <c r="BL28" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>49</v>
       </c>
       <c r="BM28" s="37">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>50</v>
       </c>
       <c r="BN28" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>51</v>
       </c>
       <c r="BO28" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>52</v>
       </c>
       <c r="BP28" s="36">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>53</v>
       </c>
       <c r="BQ28"/>
@@ -5844,7 +5867,7 @@
       <c r="CA28" s="36"/>
       <c r="CB28" s="36"/>
     </row>
-    <row r="29" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="9">
         <f t="shared" si="72"/>
         <v>225</v>
@@ -5938,42 +5961,44 @@
         <v>2</v>
       </c>
       <c r="AU29" s="7" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT29)</f>
+        <v>02</v>
+      </c>
+      <c r="AV29" s="4" t="str">
+        <f>(AV$32&amp;$AT29)</f>
+        <v>12</v>
+      </c>
+      <c r="AW29" s="4" t="str">
+        <f>(AW$32&amp;$AT29)</f>
+        <v>22</v>
+      </c>
+      <c r="AX29" s="6" t="str">
+        <f>(AX$32&amp;$AT29)</f>
+        <v>32</v>
+      </c>
+      <c r="AY29" s="8" t="str">
+        <f>(AY$32&amp;$AT29)</f>
+        <v>42</v>
+      </c>
+      <c r="AZ29" s="6" t="str">
+        <f>(AZ$32&amp;$AT29)</f>
+        <v>52</v>
+      </c>
+      <c r="BA29" s="4" t="str">
+        <f>(BA$32&amp;$AT29)</f>
+        <v>62</v>
+      </c>
+      <c r="BB29" s="4" t="str">
+        <f>(BB$32&amp;$AT29)</f>
+        <v>72</v>
+      </c>
+      <c r="BC29" s="7" t="str">
+        <f>(BC$32&amp;$AT29)</f>
         <v>82</v>
       </c>
-      <c r="AV29" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>72</v>
-      </c>
-      <c r="AW29" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>62</v>
-      </c>
-      <c r="AX29" s="6" t="str">
-        <f t="shared" si="73"/>
+      <c r="BE29" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AY29" s="8" t="str">
-        <f t="shared" si="73"/>
-        <v>42</v>
-      </c>
-      <c r="AZ29" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>32</v>
-      </c>
-      <c r="BA29" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>22</v>
-      </c>
-      <c r="BB29" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>12</v>
-      </c>
-      <c r="BC29" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>02</v>
-      </c>
-      <c r="BE29"/>
       <c r="BF29"/>
       <c r="BG29" s="40" t="s">
         <v>28</v>
@@ -5982,35 +6007,35 @@
         <v>54</v>
       </c>
       <c r="BI29" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>55</v>
       </c>
       <c r="BJ29" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>56</v>
       </c>
       <c r="BK29" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>57</v>
       </c>
       <c r="BL29" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>58</v>
       </c>
       <c r="BM29" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>59</v>
       </c>
       <c r="BN29" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>60</v>
       </c>
       <c r="BO29" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>61</v>
       </c>
       <c r="BP29" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>62</v>
       </c>
       <c r="BQ29"/>
@@ -6028,7 +6053,7 @@
       <c r="CA29" s="32"/>
       <c r="CB29" s="32"/>
     </row>
-    <row r="30" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="9">
         <f t="shared" si="72"/>
         <v>241</v>
@@ -6122,42 +6147,44 @@
         <v>1</v>
       </c>
       <c r="AU30" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f>(AU$32&amp;$AT30)</f>
+        <v>01</v>
+      </c>
+      <c r="AV30" s="4" t="str">
+        <f>(AV$32&amp;$AT30)</f>
+        <v>11</v>
+      </c>
+      <c r="AW30" s="4" t="str">
+        <f>(AW$32&amp;$AT30)</f>
+        <v>21</v>
+      </c>
+      <c r="AX30" s="3" t="str">
+        <f>(AX$32&amp;$AT30)</f>
+        <v>31</v>
+      </c>
+      <c r="AY30" s="6" t="str">
+        <f>(AY$32&amp;$AT30)</f>
+        <v>41</v>
+      </c>
+      <c r="AZ30" s="3" t="str">
+        <f>(AZ$32&amp;$AT30)</f>
+        <v>51</v>
+      </c>
+      <c r="BA30" s="4" t="str">
+        <f>(BA$32&amp;$AT30)</f>
+        <v>61</v>
+      </c>
+      <c r="BB30" s="4" t="str">
+        <f>(BB$32&amp;$AT30)</f>
+        <v>71</v>
+      </c>
+      <c r="BC30" s="4" t="str">
+        <f>(BC$32&amp;$AT30)</f>
         <v>81</v>
       </c>
-      <c r="AV30" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>71</v>
-      </c>
-      <c r="AW30" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>61</v>
-      </c>
-      <c r="AX30" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>51</v>
-      </c>
-      <c r="AY30" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>41</v>
-      </c>
-      <c r="AZ30" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>31</v>
-      </c>
-      <c r="BA30" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>21</v>
-      </c>
-      <c r="BB30" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>11</v>
-      </c>
-      <c r="BC30" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>01</v>
-      </c>
-      <c r="BE30"/>
+      <c r="BE30" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="BF30"/>
       <c r="BG30" s="40" t="s">
         <v>29</v>
@@ -6166,35 +6193,35 @@
         <v>63</v>
       </c>
       <c r="BI30" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>64</v>
       </c>
       <c r="BJ30" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>65</v>
       </c>
       <c r="BK30" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>66</v>
       </c>
       <c r="BL30" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>67</v>
       </c>
       <c r="BM30" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>68</v>
       </c>
       <c r="BN30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>69</v>
       </c>
       <c r="BO30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>70</v>
       </c>
       <c r="BP30" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>71</v>
       </c>
       <c r="BQ30"/>
@@ -6212,46 +6239,47 @@
       <c r="CA30" s="32"/>
       <c r="CB30" s="32"/>
     </row>
-    <row r="31" spans="3:80" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:80" ht="14.5" x14ac:dyDescent="0.25">
       <c r="AT31" s="24">
         <v>0</v>
       </c>
       <c r="AU31" s="4" t="str">
-        <f>(AU$33&amp;$AT31)</f>
+        <f>(AU$32&amp;$AT31)</f>
+        <v>00</v>
+      </c>
+      <c r="AV31" s="5" t="str">
+        <f>(AV$32&amp;$AT31)</f>
+        <v>10</v>
+      </c>
+      <c r="AW31" s="7" t="str">
+        <f>(AW$32&amp;$AT31)</f>
+        <v>20</v>
+      </c>
+      <c r="AX31" s="6" t="str">
+        <f>(AX$32&amp;$AT31)</f>
+        <v>30</v>
+      </c>
+      <c r="AY31" s="3" t="str">
+        <f>(AY$32&amp;$AT31)</f>
+        <v>40</v>
+      </c>
+      <c r="AZ31" s="6" t="str">
+        <f>(AZ$32&amp;$AT31)</f>
+        <v>50</v>
+      </c>
+      <c r="BA31" s="7" t="str">
+        <f>(BA$32&amp;$AT31)</f>
+        <v>60</v>
+      </c>
+      <c r="BB31" s="4" t="str">
+        <f>(BB$32&amp;$AT31)</f>
+        <v>70</v>
+      </c>
+      <c r="BC31" s="4" t="str">
+        <f>(BC$32&amp;$AT31)</f>
         <v>80</v>
       </c>
-      <c r="AV31" s="5" t="str">
-        <f t="shared" si="73"/>
-        <v>70</v>
-      </c>
-      <c r="AW31" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>60</v>
-      </c>
-      <c r="AX31" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>50</v>
-      </c>
-      <c r="AY31" s="3" t="str">
-        <f t="shared" si="73"/>
-        <v>40</v>
-      </c>
-      <c r="AZ31" s="6" t="str">
-        <f t="shared" si="73"/>
-        <v>30</v>
-      </c>
-      <c r="BA31" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>20</v>
-      </c>
-      <c r="BB31" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>10</v>
-      </c>
-      <c r="BC31" s="4" t="str">
-        <f t="shared" si="73"/>
-        <v>00</v>
-      </c>
+      <c r="BE31" s="26"/>
       <c r="BG31" s="40" t="s">
         <v>30</v>
       </c>
@@ -6259,35 +6287,35 @@
         <v>72</v>
       </c>
       <c r="BI31" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>73</v>
       </c>
       <c r="BJ31" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>74</v>
       </c>
       <c r="BK31" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>75</v>
       </c>
       <c r="BL31" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>76</v>
       </c>
       <c r="BM31" s="33">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>77</v>
       </c>
       <c r="BN31" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>78</v>
       </c>
       <c r="BO31" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>79</v>
       </c>
       <c r="BP31" s="32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="74"/>
         <v>80</v>
       </c>
       <c r="BS31" s="40">
@@ -6303,7 +6331,7 @@
       <c r="CA31" s="32"/>
       <c r="CB31" s="32"/>
     </row>
-    <row r="32" spans="3:80" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:80" x14ac:dyDescent="0.25">
       <c r="AT32" s="19" t="s">
         <v>2</v>
       </c>
@@ -6335,137 +6363,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="47:60" x14ac:dyDescent="0.15">
-      <c r="AU33" s="24">
-        <f t="shared" ref="AU33:BA33" si="76">AV33+1</f>
-        <v>8</v>
-      </c>
-      <c r="AV33" s="24">
-        <f t="shared" si="76"/>
-        <v>7</v>
-      </c>
-      <c r="AW33" s="24">
-        <f t="shared" si="76"/>
-        <v>6</v>
-      </c>
-      <c r="AX33" s="24">
-        <f t="shared" si="76"/>
-        <v>5</v>
-      </c>
-      <c r="AY33" s="24">
-        <f t="shared" si="76"/>
-        <v>4</v>
-      </c>
-      <c r="AZ33" s="24">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="BA33" s="24">
-        <f t="shared" si="76"/>
-        <v>2</v>
-      </c>
-      <c r="BB33" s="24">
-        <f>BC33+1</f>
-        <v>1</v>
-      </c>
-      <c r="BC33" s="24">
-        <v>0</v>
+    <row r="33" spans="47:60" x14ac:dyDescent="0.25">
+      <c r="AU33" s="24"/>
+      <c r="AV33" s="24"/>
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="24"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="24"/>
+      <c r="BE33" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="BH33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="34" spans="47:60" x14ac:dyDescent="0.25">
+      <c r="BE34" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="BH34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="35" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="36" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="37" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="38" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="40" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="41" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="42" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="43" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="44" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="45" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="46" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="47" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="47:60" x14ac:dyDescent="0.15">
+    <row r="48" spans="47:60" x14ac:dyDescent="0.25">
       <c r="BH48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="60:60" x14ac:dyDescent="0.15">
+    <row r="49" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="60:60" x14ac:dyDescent="0.15">
+    <row r="50" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="60:60" x14ac:dyDescent="0.15">
+    <row r="51" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="60:60" x14ac:dyDescent="0.15">
+    <row r="52" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="60:60" x14ac:dyDescent="0.15">
+    <row r="53" spans="60:60" x14ac:dyDescent="0.25">
       <c r="BH53" t="s">
         <v>46</v>
       </c>
@@ -6485,14 +6493,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="4" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27">
         <v>1</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
@@ -6564,7 +6572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
@@ -6644,7 +6652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>26</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -6764,7 +6772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -6804,7 +6812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
@@ -6844,7 +6852,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
@@ -6896,7 +6904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19400" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="cc" sheetId="1" r:id="rId1"/>
+    <sheet name="shudu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
   <si>
     <t>左右对称交换：(wh//9+1)*9-wh%9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +229,92 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 棋盘字符串函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        dstrbd = '''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        '''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 边框双线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        bstrbd = '''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        # 边框粗线</t>
+  </si>
+  <si>
+    <t>╔═╤═╤═╤═╤═╤═╤═╤═╗</t>
+  </si>
+  <si>
+    <t>║　│　│　│╲│╱│　│　│　║</t>
+  </si>
+  <si>
+    <t>╟─┼─┼─┼─╳─┼─┼─┼─╢</t>
+  </si>
+  <si>
+    <t>║　│　│　│╱│╲│　│　│　║</t>
+  </si>
+  <si>
+    <t>╟─╬─┼─┼─┼─┼─┼─╬─╢</t>
+  </si>
+  <si>
+    <t>║　│　│　│　│　│　│　│　║</t>
+  </si>
+  <si>
+    <t>╠─┼─╬─┼─╬─┼─╬─┼─╣</t>
+  </si>
+  <si>
+    <t>╟─┴─┴─┴─┴─┴─┴─┴─╢</t>
+  </si>
+  <si>
+    <t>╟─┬─┬─┬─┬─┬─┬─┬─╢</t>
+  </si>
+  <si>
+    <t>╚═╧═╧═╧═╧═╧═╧═╧═╝</t>
+  </si>
+  <si>
+    <t>┏━┯━┯━┯━┯━┯━┯━┯━┓</t>
+  </si>
+  <si>
+    <t>┃　│　│　│╲│╱│　│　│　┃</t>
+  </si>
+  <si>
+    <t>┠─┼─┼─┼─╳─┼─┼─┼─┨</t>
+  </si>
+  <si>
+    <t>┃　│　│　│╱│╲│　│　│　┃</t>
+  </si>
+  <si>
+    <t>┠─╬─┼─┼─┼─┼─┼─╬─┨</t>
+  </si>
+  <si>
+    <t>┃　│　│　│　│　│　│　│　┃</t>
+  </si>
+  <si>
+    <t>┠─┼─╬─┼─╬─┼─╬─┼─┨</t>
+  </si>
+  <si>
+    <t>┠─┴─┴─┴─┴─┴─┴─┴─┨</t>
+  </si>
+  <si>
+    <t>┠─┬─┬─┬─┬─┬─┬─┬─┨</t>
+  </si>
+  <si>
+    <t>┗━┷━┷━┷━┷━┷━┷━┷━┛</t>
+  </si>
+  <si>
+    <t>║                        　　　║</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>┃                        　　　┃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,20 +1009,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CB53"/>
+  <dimension ref="A1:CB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BE35" sqref="BE35"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="31" width="3.6328125" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="3.6328125" style="20"/>
+    <col min="2" max="31" width="3.625" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="3.625" style="20"/>
     <col min="61" max="61" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:76" x14ac:dyDescent="0.15">
       <c r="AI1" s="18" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1096,7 @@
       <c r="BW1" s="18"/>
       <c r="BX1" s="18"/>
     </row>
-    <row r="2" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="4">
         <v>0</v>
       </c>
@@ -1267,7 +1352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2">
         <f t="shared" ref="C3:C11" si="46">C2+9</f>
         <v>9</v>
@@ -1532,7 +1617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="7">
         <f t="shared" si="46"/>
         <v>18</v>
@@ -1797,7 +1882,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2">
         <f t="shared" si="46"/>
         <v>27</v>
@@ -2062,7 +2147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <f t="shared" si="46"/>
         <v>36</v>
@@ -2327,7 +2412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="4">
         <f t="shared" si="46"/>
         <v>45</v>
@@ -2592,7 +2677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="4">
         <f t="shared" si="46"/>
         <v>54</v>
@@ -2857,7 +2942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <f t="shared" si="46"/>
         <v>63</v>
@@ -3122,7 +3207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="4">
         <f t="shared" si="46"/>
         <v>72</v>
@@ -3387,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4">
         <f t="shared" si="46"/>
         <v>81</v>
@@ -3651,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:76" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -3744,7 +3829,7 @@
       <c r="BV12" s="18"/>
       <c r="BW12" s="18"/>
     </row>
-    <row r="13" spans="3:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:76" x14ac:dyDescent="0.15">
       <c r="AI13" s="18">
         <v>0</v>
       </c>
@@ -3819,7 +3904,7 @@
       <c r="BW13" s="18"/>
       <c r="BX13" s="18"/>
     </row>
-    <row r="15" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="9">
         <v>1</v>
       </c>
@@ -3917,7 +4002,7 @@
       <c r="BW15"/>
       <c r="BX15"/>
     </row>
-    <row r="16" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:76" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="9">
         <f>C15+16</f>
         <v>17</v>
@@ -4028,7 +4113,7 @@
       <c r="BW16"/>
       <c r="BX16"/>
     </row>
-    <row r="17" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="9">
         <f t="shared" ref="C17:C30" si="72">C16+16</f>
         <v>33</v>
@@ -4141,7 +4226,7 @@
       <c r="BW17"/>
       <c r="BX17"/>
     </row>
-    <row r="18" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="9">
         <f t="shared" si="72"/>
         <v>49</v>
@@ -4254,7 +4339,7 @@
       <c r="BW18"/>
       <c r="BX18"/>
     </row>
-    <row r="19" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="9">
         <f t="shared" si="72"/>
         <v>65</v>
@@ -4367,7 +4452,7 @@
       <c r="BW19"/>
       <c r="BX19"/>
     </row>
-    <row r="20" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="9">
         <f t="shared" si="72"/>
         <v>81</v>
@@ -4478,7 +4563,7 @@
       <c r="BW20"/>
       <c r="BX20"/>
     </row>
-    <row r="21" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="9">
         <f t="shared" si="72"/>
         <v>97</v>
@@ -4586,7 +4671,7 @@
       <c r="BW21"/>
       <c r="BX21"/>
     </row>
-    <row r="22" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="9">
         <f t="shared" si="72"/>
         <v>113</v>
@@ -4671,39 +4756,39 @@
         <v>9</v>
       </c>
       <c r="AU22" s="4" t="str">
-        <f>(AU$32&amp;$AT22)</f>
+        <f t="shared" ref="AU22:BC31" si="73">(AU$32&amp;$AT22)</f>
         <v>09</v>
       </c>
       <c r="AV22" s="5" t="str">
-        <f>(AV$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>19</v>
       </c>
       <c r="AW22" s="7" t="str">
-        <f>(AW$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>29</v>
       </c>
       <c r="AX22" s="6" t="str">
-        <f>(AX$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>39</v>
       </c>
       <c r="AY22" s="3" t="str">
-        <f>(AY$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>49</v>
       </c>
       <c r="AZ22" s="6" t="str">
-        <f>(AZ$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>59</v>
       </c>
       <c r="BA22" s="7" t="str">
-        <f>(BA$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>69</v>
       </c>
       <c r="BB22" s="4" t="str">
-        <f>(BB$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>79</v>
       </c>
       <c r="BC22" s="4" t="str">
-        <f>(BC$32&amp;$AT22)</f>
+        <f t="shared" si="73"/>
         <v>89</v>
       </c>
       <c r="BE22" s="26" t="s">
@@ -4769,7 +4854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="9">
         <f t="shared" si="72"/>
         <v>129</v>
@@ -4854,39 +4939,39 @@
         <v>8</v>
       </c>
       <c r="AU23" s="2" t="str">
-        <f>(AU$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>08</v>
       </c>
       <c r="AV23" s="2" t="str">
-        <f>(AV$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>18</v>
       </c>
       <c r="AW23" s="2" t="str">
-        <f>(AW$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>28</v>
       </c>
       <c r="AX23" s="3" t="str">
-        <f>(AX$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>38</v>
       </c>
       <c r="AY23" s="6" t="str">
-        <f>(AY$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>48</v>
       </c>
       <c r="AZ23" s="3" t="str">
-        <f>(AZ$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>58</v>
       </c>
       <c r="BA23" s="2" t="str">
-        <f>(BA$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>68</v>
       </c>
       <c r="BB23" s="2" t="str">
-        <f>(BB$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>78</v>
       </c>
       <c r="BC23" s="2" t="str">
-        <f>(BC$32&amp;$AT23)</f>
+        <f t="shared" si="73"/>
         <v>88</v>
       </c>
       <c r="BE23" s="26" t="s">
@@ -4904,31 +4989,31 @@
         <v>1</v>
       </c>
       <c r="BJ23" s="31">
-        <f t="shared" ref="BJ23:BP23" si="73">BI23+1</f>
+        <f t="shared" ref="BJ23:BP23" si="74">BI23+1</f>
         <v>2</v>
       </c>
       <c r="BK23" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="BL23" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>4</v>
       </c>
       <c r="BM23" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5</v>
       </c>
       <c r="BN23" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="BO23" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7</v>
       </c>
       <c r="BP23" s="30">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>8</v>
       </c>
       <c r="BQ23"/>
@@ -4946,7 +5031,7 @@
       <c r="CA23" s="30"/>
       <c r="CB23" s="30"/>
     </row>
-    <row r="24" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="9">
         <f t="shared" si="72"/>
         <v>145</v>
@@ -5031,39 +5116,39 @@
         <v>7</v>
       </c>
       <c r="AU24" s="7" t="str">
-        <f>(AU$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>07</v>
       </c>
       <c r="AV24" s="2" t="str">
-        <f>(AV$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>17</v>
       </c>
       <c r="AW24" s="2" t="str">
-        <f>(AW$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>27</v>
       </c>
       <c r="AX24" s="6" t="str">
-        <f>(AX$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>37</v>
       </c>
       <c r="AY24" s="8" t="str">
-        <f>(AY$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>47</v>
       </c>
       <c r="AZ24" s="6" t="str">
-        <f>(AZ$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>57</v>
       </c>
       <c r="BA24" s="2" t="str">
-        <f>(BA$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>67</v>
       </c>
       <c r="BB24" s="2" t="str">
-        <f>(BB$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>77</v>
       </c>
       <c r="BC24" s="7" t="str">
-        <f>(BC$32&amp;$AT24)</f>
+        <f t="shared" si="73"/>
         <v>87</v>
       </c>
       <c r="BE24" s="26" t="s">
@@ -5077,35 +5162,35 @@
         <v>9</v>
       </c>
       <c r="BI24" s="31">
-        <f t="shared" ref="BI24:BP31" si="74">BH24+1</f>
+        <f t="shared" ref="BI24:BP31" si="75">BH24+1</f>
         <v>10</v>
       </c>
       <c r="BJ24" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>11</v>
       </c>
       <c r="BK24" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>12</v>
       </c>
       <c r="BL24" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>13</v>
       </c>
       <c r="BM24" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>14</v>
       </c>
       <c r="BN24" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>15</v>
       </c>
       <c r="BO24" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>16</v>
       </c>
       <c r="BP24" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>17</v>
       </c>
       <c r="BQ24"/>
@@ -5123,7 +5208,7 @@
       <c r="CA24" s="30"/>
       <c r="CB24" s="30"/>
     </row>
-    <row r="25" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="9">
         <f t="shared" si="72"/>
         <v>161</v>
@@ -5217,39 +5302,39 @@
         <v>6</v>
       </c>
       <c r="AU25" s="2" t="str">
-        <f>(AU$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>06</v>
       </c>
       <c r="AV25" s="2" t="str">
-        <f>(AV$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>16</v>
       </c>
       <c r="AW25" s="2" t="str">
-        <f>(AW$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>26</v>
       </c>
       <c r="AX25" s="2" t="str">
-        <f>(AX$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>36</v>
       </c>
       <c r="AY25" s="2" t="str">
-        <f>(AY$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>46</v>
       </c>
       <c r="AZ25" s="2" t="str">
-        <f>(AZ$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>56</v>
       </c>
       <c r="BA25" s="2" t="str">
-        <f>(BA$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>66</v>
       </c>
       <c r="BB25" s="2" t="str">
-        <f>(BB$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>76</v>
       </c>
       <c r="BC25" s="2" t="str">
-        <f>(BC$32&amp;$AT25)</f>
+        <f t="shared" si="73"/>
         <v>86</v>
       </c>
       <c r="BE25" s="26" t="s">
@@ -5263,35 +5348,35 @@
         <v>18</v>
       </c>
       <c r="BI25" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>19</v>
       </c>
       <c r="BJ25" s="31">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>20</v>
       </c>
       <c r="BK25" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>21</v>
       </c>
       <c r="BL25" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>22</v>
       </c>
       <c r="BM25" s="35">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>23</v>
       </c>
       <c r="BN25" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>24</v>
       </c>
       <c r="BO25" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>25</v>
       </c>
       <c r="BP25" s="30">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>26</v>
       </c>
       <c r="BQ25"/>
@@ -5309,7 +5394,7 @@
       <c r="CA25" s="30"/>
       <c r="CB25" s="30"/>
     </row>
-    <row r="26" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="9">
         <f t="shared" si="72"/>
         <v>177</v>
@@ -5403,39 +5488,39 @@
         <v>5</v>
       </c>
       <c r="AU26" s="2" t="str">
-        <f>(AU$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>05</v>
       </c>
       <c r="AV26" s="2" t="str">
-        <f>(AV$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>15</v>
       </c>
       <c r="AW26" s="7" t="str">
-        <f>(AW$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>25</v>
       </c>
       <c r="AX26" s="2" t="str">
-        <f>(AX$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>35</v>
       </c>
       <c r="AY26" s="2" t="str">
-        <f>(AY$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>45</v>
       </c>
       <c r="AZ26" s="2" t="str">
-        <f>(AZ$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>55</v>
       </c>
       <c r="BA26" s="7" t="str">
-        <f>(BA$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>65</v>
       </c>
       <c r="BB26" s="2" t="str">
-        <f>(BB$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>75</v>
       </c>
       <c r="BC26" s="2" t="str">
-        <f>(BC$32&amp;$AT26)</f>
+        <f t="shared" si="73"/>
         <v>85</v>
       </c>
       <c r="BE26" s="26" t="s">
@@ -5449,35 +5534,35 @@
         <v>27</v>
       </c>
       <c r="BI26" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>28</v>
       </c>
       <c r="BJ26" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>29</v>
       </c>
       <c r="BK26" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>30</v>
       </c>
       <c r="BL26" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>31</v>
       </c>
       <c r="BM26" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>32</v>
       </c>
       <c r="BN26" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>33</v>
       </c>
       <c r="BO26" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>34</v>
       </c>
       <c r="BP26" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>35</v>
       </c>
       <c r="BQ26"/>
@@ -5495,7 +5580,7 @@
       <c r="CA26" s="36"/>
       <c r="CB26" s="36"/>
     </row>
-    <row r="27" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="9">
         <f t="shared" si="72"/>
         <v>193</v>
@@ -5589,39 +5674,39 @@
         <v>4</v>
       </c>
       <c r="AU27" s="4" t="str">
-        <f>(AU$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>04</v>
       </c>
       <c r="AV27" s="4" t="str">
-        <f>(AV$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>14</v>
       </c>
       <c r="AW27" s="7" t="str">
-        <f>(AW$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>24</v>
       </c>
       <c r="AX27" s="4" t="str">
-        <f>(AX$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>34</v>
       </c>
       <c r="AY27" s="4" t="str">
-        <f>(AY$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>44</v>
       </c>
       <c r="AZ27" s="4" t="str">
-        <f>(AZ$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>54</v>
       </c>
       <c r="BA27" s="7" t="str">
-        <f>(BA$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>64</v>
       </c>
       <c r="BB27" s="4" t="str">
-        <f>(BB$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>74</v>
       </c>
       <c r="BC27" s="4" t="str">
-        <f>(BC$32&amp;$AT27)</f>
+        <f t="shared" si="73"/>
         <v>84</v>
       </c>
       <c r="BE27" s="26" t="s">
@@ -5635,35 +5720,35 @@
         <v>36</v>
       </c>
       <c r="BI27" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>37</v>
       </c>
       <c r="BJ27" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>38</v>
       </c>
       <c r="BK27" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>39</v>
       </c>
       <c r="BL27" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>40</v>
       </c>
       <c r="BM27" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>41</v>
       </c>
       <c r="BN27" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>42</v>
       </c>
       <c r="BO27" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>43</v>
       </c>
       <c r="BP27" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>44</v>
       </c>
       <c r="BQ27"/>
@@ -5681,7 +5766,7 @@
       <c r="CA27" s="36"/>
       <c r="CB27" s="36"/>
     </row>
-    <row r="28" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="9">
         <f t="shared" si="72"/>
         <v>209</v>
@@ -5775,39 +5860,39 @@
         <v>3</v>
       </c>
       <c r="AU28" s="4" t="str">
-        <f>(AU$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>03</v>
       </c>
       <c r="AV28" s="4" t="str">
-        <f>(AV$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>13</v>
       </c>
       <c r="AW28" s="4" t="str">
-        <f>(AW$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>23</v>
       </c>
       <c r="AX28" s="4" t="str">
-        <f>(AX$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>33</v>
       </c>
       <c r="AY28" s="4" t="str">
-        <f>(AY$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>43</v>
       </c>
       <c r="AZ28" s="4" t="str">
-        <f>(AZ$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>53</v>
       </c>
       <c r="BA28" s="4" t="str">
-        <f>(BA$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>63</v>
       </c>
       <c r="BB28" s="4" t="str">
-        <f>(BB$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>73</v>
       </c>
       <c r="BC28" s="4" t="str">
-        <f>(BC$32&amp;$AT28)</f>
+        <f t="shared" si="73"/>
         <v>83</v>
       </c>
       <c r="BE28" s="26" t="s">
@@ -5821,35 +5906,35 @@
         <v>45</v>
       </c>
       <c r="BI28" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>46</v>
       </c>
       <c r="BJ28" s="29">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>47</v>
       </c>
       <c r="BK28" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>48</v>
       </c>
       <c r="BL28" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>49</v>
       </c>
       <c r="BM28" s="37">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>50</v>
       </c>
       <c r="BN28" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>51</v>
       </c>
       <c r="BO28" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>52</v>
       </c>
       <c r="BP28" s="36">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>53</v>
       </c>
       <c r="BQ28"/>
@@ -5867,7 +5952,7 @@
       <c r="CA28" s="36"/>
       <c r="CB28" s="36"/>
     </row>
-    <row r="29" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="9">
         <f t="shared" si="72"/>
         <v>225</v>
@@ -5961,39 +6046,39 @@
         <v>2</v>
       </c>
       <c r="AU29" s="7" t="str">
-        <f>(AU$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>02</v>
       </c>
       <c r="AV29" s="4" t="str">
-        <f>(AV$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>12</v>
       </c>
       <c r="AW29" s="4" t="str">
-        <f>(AW$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>22</v>
       </c>
       <c r="AX29" s="6" t="str">
-        <f>(AX$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>32</v>
       </c>
       <c r="AY29" s="8" t="str">
-        <f>(AY$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>42</v>
       </c>
       <c r="AZ29" s="6" t="str">
-        <f>(AZ$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>52</v>
       </c>
       <c r="BA29" s="4" t="str">
-        <f>(BA$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>62</v>
       </c>
       <c r="BB29" s="4" t="str">
-        <f>(BB$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>72</v>
       </c>
       <c r="BC29" s="7" t="str">
-        <f>(BC$32&amp;$AT29)</f>
+        <f t="shared" si="73"/>
         <v>82</v>
       </c>
       <c r="BE29" s="26" t="s">
@@ -6007,35 +6092,35 @@
         <v>54</v>
       </c>
       <c r="BI29" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>55</v>
       </c>
       <c r="BJ29" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>56</v>
       </c>
       <c r="BK29" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>57</v>
       </c>
       <c r="BL29" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>58</v>
       </c>
       <c r="BM29" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>59</v>
       </c>
       <c r="BN29" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>60</v>
       </c>
       <c r="BO29" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>61</v>
       </c>
       <c r="BP29" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>62</v>
       </c>
       <c r="BQ29"/>
@@ -6053,7 +6138,7 @@
       <c r="CA29" s="32"/>
       <c r="CB29" s="32"/>
     </row>
-    <row r="30" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:80" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="9">
         <f t="shared" si="72"/>
         <v>241</v>
@@ -6147,39 +6232,39 @@
         <v>1</v>
       </c>
       <c r="AU30" s="4" t="str">
-        <f>(AU$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>01</v>
       </c>
       <c r="AV30" s="4" t="str">
-        <f>(AV$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>11</v>
       </c>
       <c r="AW30" s="4" t="str">
-        <f>(AW$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>21</v>
       </c>
       <c r="AX30" s="3" t="str">
-        <f>(AX$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>31</v>
       </c>
       <c r="AY30" s="6" t="str">
-        <f>(AY$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>41</v>
       </c>
       <c r="AZ30" s="3" t="str">
-        <f>(AZ$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>51</v>
       </c>
       <c r="BA30" s="4" t="str">
-        <f>(BA$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>61</v>
       </c>
       <c r="BB30" s="4" t="str">
-        <f>(BB$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>71</v>
       </c>
       <c r="BC30" s="4" t="str">
-        <f>(BC$32&amp;$AT30)</f>
+        <f t="shared" si="73"/>
         <v>81</v>
       </c>
       <c r="BE30" s="26" t="s">
@@ -6193,35 +6278,35 @@
         <v>63</v>
       </c>
       <c r="BI30" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>64</v>
       </c>
       <c r="BJ30" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>65</v>
       </c>
       <c r="BK30" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>66</v>
       </c>
       <c r="BL30" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>67</v>
       </c>
       <c r="BM30" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>68</v>
       </c>
       <c r="BN30" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>69</v>
       </c>
       <c r="BO30" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>70</v>
       </c>
       <c r="BP30" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>71</v>
       </c>
       <c r="BQ30"/>
@@ -6239,44 +6324,44 @@
       <c r="CA30" s="32"/>
       <c r="CB30" s="32"/>
     </row>
-    <row r="31" spans="3:80" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:80" ht="16.5" x14ac:dyDescent="0.15">
       <c r="AT31" s="24">
         <v>0</v>
       </c>
       <c r="AU31" s="4" t="str">
-        <f>(AU$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>00</v>
       </c>
       <c r="AV31" s="5" t="str">
-        <f>(AV$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>10</v>
       </c>
       <c r="AW31" s="7" t="str">
-        <f>(AW$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>20</v>
       </c>
       <c r="AX31" s="6" t="str">
-        <f>(AX$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>30</v>
       </c>
       <c r="AY31" s="3" t="str">
-        <f>(AY$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>40</v>
       </c>
       <c r="AZ31" s="6" t="str">
-        <f>(AZ$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>50</v>
       </c>
       <c r="BA31" s="7" t="str">
-        <f>(BA$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>60</v>
       </c>
       <c r="BB31" s="4" t="str">
-        <f>(BB$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>70</v>
       </c>
       <c r="BC31" s="4" t="str">
-        <f>(BC$32&amp;$AT31)</f>
+        <f t="shared" si="73"/>
         <v>80</v>
       </c>
       <c r="BE31" s="26"/>
@@ -6287,35 +6372,35 @@
         <v>72</v>
       </c>
       <c r="BI31" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>73</v>
       </c>
       <c r="BJ31" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>74</v>
       </c>
       <c r="BK31" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>75</v>
       </c>
       <c r="BL31" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>76</v>
       </c>
       <c r="BM31" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>77</v>
       </c>
       <c r="BN31" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>78</v>
       </c>
       <c r="BO31" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>79</v>
       </c>
       <c r="BP31" s="32">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>80</v>
       </c>
       <c r="BS31" s="40">
@@ -6331,7 +6416,7 @@
       <c r="CA31" s="32"/>
       <c r="CB31" s="32"/>
     </row>
-    <row r="32" spans="3:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:80" x14ac:dyDescent="0.15">
       <c r="AT32" s="19" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +6448,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
       <c r="AU33" s="24"/>
       <c r="AV33" s="24"/>
       <c r="AW33" s="24"/>
@@ -6380,7 +6468,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
       <c r="BE34" s="26" t="s">
         <v>55</v>
       </c>
@@ -6388,94 +6479,273 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
       <c r="BH35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
       <c r="BH36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
       <c r="BH37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
       <c r="BH38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
       <c r="BH40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
       <c r="BH41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
       <c r="BH42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
       <c r="BH43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
       <c r="BH44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
       <c r="BH45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
       <c r="BH46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
       <c r="BH47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="47:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
       <c r="BH48" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="60:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
       <c r="BH49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="60:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
       <c r="BH50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="60:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
       <c r="BH51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="60:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
       <c r="BH52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="60:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
       <c r="BH53" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6490,17 +6760,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="42" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="4" style="42" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="27">
         <v>1</v>
       </c>
@@ -6532,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
@@ -6572,7 +6842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -6612,7 +6882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
@@ -6652,7 +6922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
@@ -6692,7 +6962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="43" t="s">
         <v>26</v>
       </c>
@@ -6732,7 +7002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
         <v>27</v>
       </c>
@@ -6772,7 +7042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="43" t="s">
         <v>28</v>
       </c>
@@ -6812,7 +7082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="43" t="s">
         <v>29</v>
       </c>
@@ -6852,7 +7122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="43" t="s">
         <v>30</v>
       </c>
@@ -6896,17 +7166,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/chessboard.xlsx
+++ b/chessboard.xlsx
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4:AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
